--- a/会计/Departmental Accounts/2010 Q5.xlsx
+++ b/会计/Departmental Accounts/2010 Q5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melvinchia/Documents/involution/会计/Departmental Accounts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71819009-6D99-8A4B-BA01-D50BDECACDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3201A3-77A6-654E-8450-5FA33A844947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{49CAB9D6-088B-1E4E-87E3-984FAC7ECE33}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{49CAB9D6-088B-1E4E-87E3-984FAC7ECE33}"/>
   </bookViews>
   <sheets>
     <sheet name="DIC" sheetId="1" r:id="rId1"/>
@@ -654,10 +654,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DA23C5-0587-CD42-B2A8-C89F00E9992A}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView showGridLines="0" zoomScale="102" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1842,7 +1845,9 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="99" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
     <ignoredError sqref="F15:F16 B20:B21 D20:D21 D26" formula="1"/>
   </ignoredErrors>
@@ -1851,10 +1856,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09047775-F77E-EB4A-BA47-3C191BDE2AF7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="142" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2476,6 +2484,8 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>